--- a/biology/Médecine/Georges_Lauret/Georges_Lauret.xlsx
+++ b/biology/Médecine/Georges_Lauret/Georges_Lauret.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Georges Raymond Lauret (20 juin 1904 à Paris 6e arrondissement - 7 juillet 1996 à Bihorel, Seine-Maritime) est chef du service obstétrique de l'hospice de Rouen sous l'occupation allemande durant la Seconde Guerre mondiale.
-Il cache dans son service une mère juive et ses deux filles, qu'il fait passer pour malades[1] de janvier 1943 à la libération de Rouen. Il sera reconnu Juste parmi les nations[2] en 2004, à titre posthume[3], à la demande de Paulette et Gaby Ganon, les deux petites-filles juives qu'il a sauvées. Il est le seul Juste parmi les nations à Rouen.
+Il cache dans son service une mère juive et ses deux filles, qu'il fait passer pour malades de janvier 1943 à la libération de Rouen. Il sera reconnu Juste parmi les nations en 2004, à titre posthume, à la demande de Paulette et Gaby Ganon, les deux petites-filles juives qu'il a sauvées. Il est le seul Juste parmi les nations à Rouen.
 En 1946, il est président du Conseil départemental de l'ordre des sages-femmes. Il donne ses consultations au no 26 rue Thiers.
-L'histoire de Georges Lauret est racontée dans le livre Les Miraculées[4] de Sébastien Bailly. 
-Une plaque à la mémoire de Georges Lauret est apposée le 13 mai 2016 dans le hall de la maternité du CHU de Rouen[5].
+L'histoire de Georges Lauret est racontée dans le livre Les Miraculées de Sébastien Bailly. 
+Une plaque à la mémoire de Georges Lauret est apposée le 13 mai 2016 dans le hall de la maternité du CHU de Rouen.
 </t>
         </is>
       </c>
